--- a/biology/Botanique/Conopholis_d'Amérique/Conopholis_d'Amérique.xlsx
+++ b/biology/Botanique/Conopholis_d'Amérique/Conopholis_d'Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conopholis_d%27Am%C3%A9rique</t>
+          <t>Conopholis_d'Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conopholis americana
 La Conopholis d'Amérique (Conopholis americana ou Orobanche americana L.) est une plante parasite de la famille Orobanchaceae originaire d'Amérique du Nord. Cette plante sans chlorophylle parasite les racines du chêne rouge.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conopholis_d%27Am%C3%A9rique</t>
+          <t>Conopholis_d'Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conopholis_d%27Am%C3%A9rique</t>
+          <t>Conopholis_d'Amérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,10 +552,12 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Canada :
-Québec: l'espèce est considérée comme « susceptible d’être désignée menacée ou vulnérable »[1].</t>
+Québec: l'espèce est considérée comme « susceptible d’être désignée menacée ou vulnérable ».</t>
         </is>
       </c>
     </row>
